--- a/docs/presentacio final/Final.xlsx
+++ b/docs/presentacio final/Final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18720" windowHeight="11840"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18720" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Héctor</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>SSL</t>
-  </si>
-  <si>
-    <t>Complet</t>
   </si>
   <si>
     <t>Conté subtasques</t>
@@ -210,12 +207,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Android</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Noves Tasques</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completat</t>
   </si>
 </sst>
 </file>
@@ -225,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +314,13 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -381,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -725,21 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="55"/>
       </left>
@@ -761,21 +749,6 @@
         <color indexed="55"/>
       </top>
       <bottom style="medium">
-        <color indexed="55"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom style="thin">
         <color indexed="55"/>
       </bottom>
       <diagonal/>
@@ -809,12 +782,124 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="55"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
       <top style="thin">
         <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -825,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -930,6 +1015,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -942,35 +1050,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,75 +1668,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:AN72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AP72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD55" sqref="AD55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="20" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.5" customWidth="1"/>
+    <col min="33" max="34" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.28515625" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" customWidth="1"/>
+    <col min="41" max="41" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40">
-      <c r="C2" s="80" t="s">
+    <row r="2" spans="1:42">
+      <c r="C2" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="80" t="s">
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="83"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="96"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1">
+    <row r="3" spans="1:42" s="5" customFormat="1">
       <c r="A3" s="63"/>
       <c r="B3" s="78" t="s">
         <v>0</v>
@@ -1748,13 +1854,17 @@
       </c>
       <c r="AM3" s="9"/>
       <c r="AN3" s="79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="15" thickBot="1">
+        <v>7</v>
+      </c>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="15.75" thickBot="1">
       <c r="A4" s="64"/>
       <c r="B4" s="65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="11"/>
@@ -1794,13 +1904,17 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="61"/>
       <c r="AN4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="15" thickBot="1">
+        <v>51</v>
+      </c>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" ht="15.75" thickBot="1">
       <c r="A5" s="22"/>
       <c r="B5" s="66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="14"/>
@@ -1838,15 +1952,12 @@
       <c r="AJ5" s="59"/>
       <c r="AK5" s="15"/>
       <c r="AL5" s="6"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="15" thickBot="1">
+      <c r="AN5" s="41"/>
+    </row>
+    <row r="6" spans="1:42" ht="15.75" thickBot="1">
       <c r="A6" s="22"/>
       <c r="B6" s="66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="14"/>
@@ -1884,12 +1995,8 @@
       <c r="AJ6" s="59"/>
       <c r="AK6" s="15"/>
       <c r="AL6" s="6"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" ht="15" thickBot="1">
+    </row>
+    <row r="7" spans="1:42" ht="15.75" thickBot="1">
       <c r="A7" s="67"/>
       <c r="B7" s="68" t="s">
         <v>2</v>
@@ -1930,15 +2037,11 @@
       <c r="AJ7" s="59"/>
       <c r="AK7" s="15"/>
       <c r="AL7" s="6"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="15" thickBot="1">
+    </row>
+    <row r="8" spans="1:42" ht="15.75" thickBot="1">
       <c r="A8" s="22"/>
       <c r="B8" s="66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="19"/>
@@ -1977,10 +2080,10 @@
       <c r="AK8" s="15"/>
       <c r="AL8" s="6"/>
     </row>
-    <row r="9" spans="1:40" ht="15" thickBot="1">
+    <row r="9" spans="1:42" ht="15.75" thickBot="1">
       <c r="A9" s="22"/>
       <c r="B9" s="66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="19"/>
@@ -2019,10 +2122,10 @@
       <c r="AK9" s="15"/>
       <c r="AL9" s="6"/>
     </row>
-    <row r="10" spans="1:40" ht="15" thickBot="1">
+    <row r="10" spans="1:42" ht="15.75" thickBot="1">
       <c r="A10" s="67"/>
       <c r="B10" s="68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="14"/>
@@ -2061,10 +2164,10 @@
       <c r="AK10" s="15"/>
       <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="1:40" ht="15" thickBot="1">
+    <row r="11" spans="1:42" ht="15.75" thickBot="1">
       <c r="A11" s="67"/>
       <c r="B11" s="69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="14"/>
@@ -2103,10 +2206,10 @@
       <c r="AK11" s="15"/>
       <c r="AL11" s="6"/>
     </row>
-    <row r="12" spans="1:40" ht="15" thickBot="1">
+    <row r="12" spans="1:42" ht="15.75" thickBot="1">
       <c r="A12" s="22"/>
       <c r="B12" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="14"/>
@@ -2145,10 +2248,10 @@
       <c r="AK12" s="15"/>
       <c r="AL12" s="6"/>
     </row>
-    <row r="13" spans="1:40" ht="15" thickBot="1">
+    <row r="13" spans="1:42" ht="15.75" thickBot="1">
       <c r="A13" s="22"/>
       <c r="B13" s="70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="14"/>
@@ -2187,10 +2290,10 @@
       <c r="AK13" s="15"/>
       <c r="AL13" s="6"/>
     </row>
-    <row r="14" spans="1:40" ht="15" thickBot="1">
+    <row r="14" spans="1:42" ht="15.75" thickBot="1">
       <c r="A14" s="67"/>
       <c r="B14" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="14"/>
@@ -2229,10 +2332,10 @@
       <c r="AK14" s="15"/>
       <c r="AL14" s="6"/>
     </row>
-    <row r="15" spans="1:40" ht="15" thickBot="1">
+    <row r="15" spans="1:42" ht="15.75" thickBot="1">
       <c r="A15" s="67"/>
       <c r="B15" s="70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="14"/>
@@ -2271,10 +2374,10 @@
       <c r="AK15" s="15"/>
       <c r="AL15" s="6"/>
     </row>
-    <row r="16" spans="1:40" ht="15" thickBot="1">
+    <row r="16" spans="1:42" ht="15.75" thickBot="1">
       <c r="A16" s="22"/>
       <c r="B16" s="71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="14"/>
@@ -2313,7 +2416,7 @@
       <c r="AK16" s="15"/>
       <c r="AL16" s="6"/>
     </row>
-    <row r="17" spans="1:39" ht="15" thickBot="1">
+    <row r="17" spans="1:39" ht="15.75" thickBot="1">
       <c r="A17" s="22"/>
       <c r="B17" s="71" t="s">
         <v>4</v>
@@ -2356,10 +2459,10 @@
       <c r="AL17" s="6"/>
       <c r="AM17" s="41"/>
     </row>
-    <row r="18" spans="1:39" ht="15" thickBot="1">
+    <row r="18" spans="1:39" ht="15.75" thickBot="1">
       <c r="A18" s="67"/>
       <c r="B18" s="70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="14"/>
@@ -2398,10 +2501,10 @@
       <c r="AK18" s="15"/>
       <c r="AL18" s="6"/>
     </row>
-    <row r="19" spans="1:39" ht="15" thickBot="1">
+    <row r="19" spans="1:39" ht="15.75" thickBot="1">
       <c r="A19" s="22"/>
       <c r="B19" s="71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="14"/>
@@ -2433,14 +2536,14 @@
       <c r="AD19" s="15"/>
       <c r="AE19" s="29"/>
       <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
+      <c r="AG19" s="100"/>
       <c r="AH19" s="15"/>
       <c r="AI19" s="30"/>
       <c r="AJ19" s="59"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="6"/>
     </row>
-    <row r="20" spans="1:39" ht="15" thickBot="1">
+    <row r="20" spans="1:39" ht="15.75" thickBot="1">
       <c r="A20" s="22"/>
       <c r="B20" s="71" t="s">
         <v>4</v>
@@ -2475,143 +2578,143 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="15"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="99"/>
       <c r="AI20" s="30"/>
       <c r="AJ20" s="59"/>
       <c r="AK20" s="15"/>
       <c r="AL20" s="6"/>
     </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="92"/>
-      <c r="B21" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="33"/>
+    <row r="21" spans="1:39" ht="15.75" thickBot="1">
+      <c r="A21" s="86"/>
+      <c r="B21" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="97"/>
+      <c r="AJ21" s="97"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="6"/>
     </row>
-    <row r="22" spans="1:39" ht="15" thickBot="1">
+    <row r="22" spans="1:39" ht="15.75" thickBot="1">
       <c r="A22" s="32"/>
-      <c r="B22" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="33"/>
+      <c r="B22" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="97"/>
+      <c r="AJ22" s="97"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="6"/>
     </row>
-    <row r="23" spans="1:39" ht="15" thickBot="1">
+    <row r="23" spans="1:39" ht="15.75" thickBot="1">
       <c r="A23" s="32"/>
-      <c r="B23" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="33"/>
+      <c r="B23" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="97"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="97"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="6"/>
     </row>
     <row r="24" spans="1:39">
-      <c r="A24" s="98"/>
-      <c r="B24" s="91" t="s">
-        <v>25</v>
+      <c r="A24" s="90"/>
+      <c r="B24" s="85" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="36"/>
@@ -2640,12 +2743,12 @@
       <c r="AA24" s="43"/>
       <c r="AB24" s="37"/>
       <c r="AC24" s="37"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="39"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="102"/>
+      <c r="AG24" s="102"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="103"/>
       <c r="AJ24" s="60"/>
       <c r="AK24" s="38"/>
     </row>
@@ -2658,47 +2761,47 @@
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:39">
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="94"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="80" t="s">
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="96"/>
+      <c r="AA27" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="82"/>
-      <c r="Y27" s="82"/>
-      <c r="Z27" s="83"/>
-      <c r="AA27" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB27" s="82"/>
-      <c r="AC27" s="82"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="83"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="96"/>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="8"/>
@@ -2811,10 +2914,10 @@
         <v>40317</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="15" thickBot="1">
+    <row r="29" spans="1:39" ht="15.75" thickBot="1">
       <c r="A29" s="64"/>
       <c r="B29" s="65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="11"/>
@@ -2852,10 +2955,10 @@
       <c r="AJ29" s="58"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:39" ht="15" thickBot="1">
+    <row r="30" spans="1:39" ht="15.75" thickBot="1">
       <c r="A30" s="74"/>
       <c r="B30" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="14"/>
@@ -2893,10 +2996,10 @@
       <c r="AJ30" s="59"/>
       <c r="AK30" s="15"/>
     </row>
-    <row r="31" spans="1:39" ht="15" thickBot="1">
+    <row r="31" spans="1:39" ht="15.75" thickBot="1">
       <c r="A31" s="67"/>
       <c r="B31" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="14"/>
@@ -2934,10 +3037,10 @@
       <c r="AJ31" s="59"/>
       <c r="AK31" s="15"/>
     </row>
-    <row r="32" spans="1:39" ht="15" thickBot="1">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1">
       <c r="A32" s="22"/>
       <c r="B32" s="66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="19"/>
@@ -2975,10 +3078,10 @@
       <c r="AJ32" s="59"/>
       <c r="AK32" s="15"/>
     </row>
-    <row r="33" spans="1:37" ht="15" thickBot="1">
+    <row r="33" spans="1:37" ht="15.75" thickBot="1">
       <c r="A33" s="67"/>
       <c r="B33" s="69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="14"/>
@@ -3016,10 +3119,10 @@
       <c r="AJ33" s="59"/>
       <c r="AK33" s="15"/>
     </row>
-    <row r="34" spans="1:37" ht="15" thickBot="1">
+    <row r="34" spans="1:37" ht="15.75" thickBot="1">
       <c r="A34" s="22"/>
       <c r="B34" s="70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="14"/>
@@ -3057,10 +3160,10 @@
       <c r="AJ34" s="59"/>
       <c r="AK34" s="15"/>
     </row>
-    <row r="35" spans="1:37" ht="15" thickBot="1">
+    <row r="35" spans="1:37" ht="15.75" thickBot="1">
       <c r="A35" s="22"/>
       <c r="B35" s="70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="29"/>
       <c r="D35" s="14"/>
@@ -3098,10 +3201,10 @@
       <c r="AJ35" s="59"/>
       <c r="AK35" s="15"/>
     </row>
-    <row r="36" spans="1:37" ht="15" thickBot="1">
+    <row r="36" spans="1:37" ht="15.75" thickBot="1">
       <c r="A36" s="67"/>
-      <c r="B36" s="85" t="s">
-        <v>55</v>
+      <c r="B36" s="81" t="s">
+        <v>54</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="14"/>
@@ -3139,10 +3242,10 @@
       <c r="AJ36" s="59"/>
       <c r="AK36" s="15"/>
     </row>
-    <row r="37" spans="1:37" ht="15" thickBot="1">
+    <row r="37" spans="1:37" ht="15.75" thickBot="1">
       <c r="A37" s="22"/>
-      <c r="B37" s="84" t="s">
-        <v>56</v>
+      <c r="B37" s="80" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="29"/>
       <c r="D37" s="14"/>
@@ -3180,10 +3283,10 @@
       <c r="AJ37" s="59"/>
       <c r="AK37" s="15"/>
     </row>
-    <row r="38" spans="1:37" ht="15" thickBot="1">
+    <row r="38" spans="1:37" ht="15.75" thickBot="1">
       <c r="A38" s="22"/>
-      <c r="B38" s="84" t="s">
-        <v>57</v>
+      <c r="B38" s="80" t="s">
+        <v>56</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="14"/>
@@ -3221,10 +3324,10 @@
       <c r="AJ38" s="59"/>
       <c r="AK38" s="15"/>
     </row>
-    <row r="39" spans="1:37" ht="15" thickBot="1">
+    <row r="39" spans="1:37" ht="15.75" thickBot="1">
       <c r="A39" s="67"/>
       <c r="B39" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="14"/>
@@ -3262,10 +3365,10 @@
       <c r="AJ39" s="59"/>
       <c r="AK39" s="15"/>
     </row>
-    <row r="40" spans="1:37" ht="15" thickBot="1">
+    <row r="40" spans="1:37" ht="15.75" thickBot="1">
       <c r="A40" s="22"/>
       <c r="B40" s="75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="14"/>
@@ -3303,10 +3406,10 @@
       <c r="AJ40" s="59"/>
       <c r="AK40" s="15"/>
     </row>
-    <row r="41" spans="1:37" ht="15" thickBot="1">
+    <row r="41" spans="1:37" ht="15.75" thickBot="1">
       <c r="A41" s="22"/>
       <c r="B41" s="70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="14"/>
@@ -3344,10 +3447,10 @@
       <c r="AJ41" s="59"/>
       <c r="AK41" s="15"/>
     </row>
-    <row r="42" spans="1:37" ht="15" thickBot="1">
+    <row r="42" spans="1:37" ht="15.75" thickBot="1">
       <c r="A42" s="22"/>
       <c r="B42" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="14"/>
@@ -3385,10 +3488,10 @@
       <c r="AJ42" s="59"/>
       <c r="AK42" s="15"/>
     </row>
-    <row r="43" spans="1:37" ht="15" thickBot="1">
+    <row r="43" spans="1:37" ht="15.75" thickBot="1">
       <c r="A43" s="22"/>
       <c r="B43" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="29"/>
       <c r="D43" s="14"/>
@@ -3426,10 +3529,10 @@
       <c r="AJ43" s="59"/>
       <c r="AK43" s="15"/>
     </row>
-    <row r="44" spans="1:37" ht="15" thickBot="1">
+    <row r="44" spans="1:37" ht="15.75" thickBot="1">
       <c r="A44" s="22"/>
       <c r="B44" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="14"/>
@@ -3467,10 +3570,10 @@
       <c r="AJ44" s="59"/>
       <c r="AK44" s="15"/>
     </row>
-    <row r="45" spans="1:37" ht="15" thickBot="1">
+    <row r="45" spans="1:37" ht="15.75" thickBot="1">
       <c r="A45" s="22"/>
-      <c r="B45" s="84" t="s">
-        <v>54</v>
+      <c r="B45" s="80" t="s">
+        <v>53</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="14"/>
@@ -3508,10 +3611,10 @@
       <c r="AJ45" s="59"/>
       <c r="AK45" s="15"/>
     </row>
-    <row r="46" spans="1:37" ht="15" thickBot="1">
+    <row r="46" spans="1:37" ht="15.75" thickBot="1">
       <c r="A46" s="22"/>
-      <c r="B46" s="84" t="s">
-        <v>58</v>
+      <c r="B46" s="80" t="s">
+        <v>57</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="14"/>
@@ -3549,12 +3652,12 @@
       <c r="AJ46" s="59"/>
       <c r="AK46" s="15"/>
     </row>
-    <row r="47" spans="1:37" ht="15" thickBot="1">
+    <row r="47" spans="1:37" ht="15.75" thickBot="1">
       <c r="A47" s="32"/>
-      <c r="B47" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="87"/>
+      <c r="B47" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="83"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="34"/>
@@ -3591,9 +3694,9 @@
       <c r="AK47" s="15"/>
     </row>
     <row r="48" spans="1:37">
-      <c r="A48" s="89"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="36"/>
@@ -3622,11 +3725,11 @@
       <c r="AA48" s="35"/>
       <c r="AB48" s="37"/>
       <c r="AC48" s="37"/>
-      <c r="AD48" s="88"/>
-      <c r="AE48" s="89"/>
-      <c r="AF48" s="90"/>
-      <c r="AG48" s="90"/>
-      <c r="AH48" s="88"/>
+      <c r="AD48" s="108"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="107"/>
+      <c r="AG48" s="107"/>
+      <c r="AH48" s="108"/>
       <c r="AI48" s="40"/>
       <c r="AJ48" s="60"/>
       <c r="AK48" s="38"/>
@@ -3635,47 +3738,47 @@
       <c r="I49" s="8"/>
     </row>
     <row r="51" spans="1:38">
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="94"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="80" t="s">
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="M51" s="95"/>
+      <c r="N51" s="95"/>
+      <c r="O51" s="95"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="95"/>
+      <c r="W51" s="95"/>
+      <c r="X51" s="95"/>
+      <c r="Y51" s="95"/>
+      <c r="Z51" s="96"/>
+      <c r="AA51" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="83"/>
-      <c r="AA51" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="82"/>
-      <c r="AD51" s="82"/>
-      <c r="AE51" s="82"/>
-      <c r="AF51" s="82"/>
-      <c r="AG51" s="82"/>
-      <c r="AH51" s="82"/>
-      <c r="AI51" s="82"/>
-      <c r="AJ51" s="82"/>
-      <c r="AK51" s="83"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="95"/>
+      <c r="AD51" s="95"/>
+      <c r="AE51" s="95"/>
+      <c r="AF51" s="95"/>
+      <c r="AG51" s="95"/>
+      <c r="AH51" s="95"/>
+      <c r="AI51" s="95"/>
+      <c r="AJ51" s="95"/>
+      <c r="AK51" s="96"/>
     </row>
     <row r="52" spans="1:38">
       <c r="A52" s="8"/>
@@ -3789,10 +3892,10 @@
       </c>
       <c r="AL52" s="41"/>
     </row>
-    <row r="53" spans="1:38" ht="15" thickBot="1">
+    <row r="53" spans="1:38" ht="15.75" thickBot="1">
       <c r="A53" s="64"/>
       <c r="B53" s="65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="42"/>
       <c r="D53" s="50"/>
@@ -3831,10 +3934,10 @@
       <c r="AK53" s="12"/>
       <c r="AL53" s="6"/>
     </row>
-    <row r="54" spans="1:38" ht="15" thickBot="1">
+    <row r="54" spans="1:38" ht="15.75" thickBot="1">
       <c r="A54" s="22"/>
       <c r="B54" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="14"/>
@@ -3873,10 +3976,10 @@
       <c r="AK54" s="15"/>
       <c r="AL54" s="6"/>
     </row>
-    <row r="55" spans="1:38" ht="15" thickBot="1">
+    <row r="55" spans="1:38" ht="15.75" thickBot="1">
       <c r="A55" s="67"/>
       <c r="B55" s="69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="29"/>
       <c r="D55" s="14"/>
@@ -3915,10 +4018,10 @@
       <c r="AK55" s="15"/>
       <c r="AL55" s="6"/>
     </row>
-    <row r="56" spans="1:38" ht="15" thickBot="1">
+    <row r="56" spans="1:38" ht="15.75" thickBot="1">
       <c r="A56" s="22"/>
       <c r="B56" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="14"/>
@@ -3957,10 +4060,10 @@
       <c r="AK56" s="15"/>
       <c r="AL56" s="6"/>
     </row>
-    <row r="57" spans="1:38" ht="15" thickBot="1">
+    <row r="57" spans="1:38" ht="15.75" thickBot="1">
       <c r="A57" s="22"/>
       <c r="B57" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="14"/>
@@ -3999,10 +4102,10 @@
       <c r="AK57" s="15"/>
       <c r="AL57" s="6"/>
     </row>
-    <row r="58" spans="1:38" ht="15" thickBot="1">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1">
       <c r="A58" s="22"/>
       <c r="B58" s="70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="14"/>
@@ -4041,10 +4144,10 @@
       <c r="AK58" s="15"/>
       <c r="AL58" s="6"/>
     </row>
-    <row r="59" spans="1:38" ht="15" thickBot="1">
+    <row r="59" spans="1:38" ht="15.75" thickBot="1">
       <c r="A59" s="22"/>
       <c r="B59" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="29"/>
       <c r="D59" s="14"/>
@@ -4083,10 +4186,10 @@
       <c r="AK59" s="15"/>
       <c r="AL59" s="6"/>
     </row>
-    <row r="60" spans="1:38" ht="15" thickBot="1">
+    <row r="60" spans="1:38" ht="15.75" thickBot="1">
       <c r="A60" s="22"/>
       <c r="B60" s="70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="29"/>
       <c r="D60" s="14"/>
@@ -4125,10 +4228,10 @@
       <c r="AK60" s="15"/>
       <c r="AL60" s="6"/>
     </row>
-    <row r="61" spans="1:38" ht="15" thickBot="1">
+    <row r="61" spans="1:38" ht="15.75" thickBot="1">
       <c r="A61" s="22"/>
       <c r="B61" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="29"/>
       <c r="D61" s="14"/>
@@ -4167,10 +4270,10 @@
       <c r="AK61" s="15"/>
       <c r="AL61" s="6"/>
     </row>
-    <row r="62" spans="1:38" ht="15" thickBot="1">
+    <row r="62" spans="1:38" ht="15.75" thickBot="1">
       <c r="A62" s="22"/>
       <c r="B62" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="14"/>
@@ -4209,10 +4312,10 @@
       <c r="AK62" s="15"/>
       <c r="AL62" s="6"/>
     </row>
-    <row r="63" spans="1:38" ht="15" thickBot="1">
+    <row r="63" spans="1:38" ht="15.75" thickBot="1">
       <c r="A63" s="22"/>
       <c r="B63" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="29"/>
       <c r="D63" s="14"/>
@@ -4251,10 +4354,10 @@
       <c r="AK63" s="15"/>
       <c r="AL63" s="6"/>
     </row>
-    <row r="64" spans="1:38" ht="15" thickBot="1">
-      <c r="A64" s="22"/>
-      <c r="B64" s="66" t="s">
-        <v>59</v>
+    <row r="64" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A64" s="32"/>
+      <c r="B64" s="77" t="s">
+        <v>46</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="14"/>
@@ -4268,21 +4371,21 @@
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
       <c r="N64" s="15"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="55"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="14"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="32"/>
+      <c r="X64" s="33"/>
       <c r="Y64" s="14"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="19"/>
-      <c r="AC64" s="19"/>
+      <c r="Z64" s="15"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="14"/>
+      <c r="AC64" s="20"/>
       <c r="AD64" s="21"/>
       <c r="AE64" s="23"/>
       <c r="AF64" s="20"/>
@@ -4293,10 +4396,10 @@
       <c r="AK64" s="15"/>
       <c r="AL64" s="6"/>
     </row>
-    <row r="65" spans="1:38" ht="15" thickBot="1">
-      <c r="A65" s="22"/>
-      <c r="B65" s="66" t="s">
-        <v>60</v>
+    <row r="65" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A65" s="32"/>
+      <c r="B65" s="77" t="s">
+        <v>42</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="14"/>
@@ -4320,25 +4423,25 @@
       <c r="V65" s="55"/>
       <c r="W65" s="13"/>
       <c r="X65" s="14"/>
-      <c r="Y65" s="14"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="13"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="34"/>
+      <c r="AA65" s="32"/>
       <c r="AB65" s="14"/>
       <c r="AC65" s="20"/>
-      <c r="AD65" s="18"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="19"/>
-      <c r="AG65" s="19"/>
-      <c r="AH65" s="18"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="23"/>
+      <c r="AF65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AH65" s="15"/>
       <c r="AI65" s="23"/>
       <c r="AJ65" s="59"/>
       <c r="AK65" s="15"/>
       <c r="AL65" s="6"/>
     </row>
-    <row r="66" spans="1:38" ht="15" thickBot="1">
-      <c r="A66" s="32"/>
-      <c r="B66" s="77" t="s">
-        <v>47</v>
+    <row r="66" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A66" s="22"/>
+      <c r="B66" s="111" t="s">
+        <v>58</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="14"/>
@@ -4352,21 +4455,21 @@
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
       <c r="N66" s="15"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="33"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="14"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="13"/>
+      <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
-      <c r="Z66" s="15"/>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="14"/>
-      <c r="AC66" s="20"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
       <c r="AD66" s="21"/>
       <c r="AE66" s="23"/>
       <c r="AF66" s="20"/>
@@ -4377,10 +4480,10 @@
       <c r="AK66" s="15"/>
       <c r="AL66" s="6"/>
     </row>
-    <row r="67" spans="1:38" ht="15" thickBot="1">
-      <c r="A67" s="32"/>
-      <c r="B67" s="77" t="s">
-        <v>43</v>
+    <row r="67" spans="1:38" ht="15.75" thickBot="1">
+      <c r="A67" s="22"/>
+      <c r="B67" s="112" t="s">
+        <v>26</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="14"/>
@@ -4404,25 +4507,25 @@
       <c r="V67" s="55"/>
       <c r="W67" s="13"/>
       <c r="X67" s="14"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="34"/>
-      <c r="AA67" s="32"/>
+      <c r="Y67" s="14"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="13"/>
       <c r="AB67" s="14"/>
       <c r="AC67" s="20"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="23"/>
-      <c r="AF67" s="20"/>
-      <c r="AG67" s="20"/>
-      <c r="AH67" s="15"/>
+      <c r="AD67" s="18"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="19"/>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="18"/>
       <c r="AI67" s="23"/>
       <c r="AJ67" s="59"/>
       <c r="AK67" s="15"/>
       <c r="AL67" s="6"/>
     </row>
     <row r="68" spans="1:38">
-      <c r="A68" s="89"/>
+      <c r="A68" s="113"/>
       <c r="B68" s="72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="43"/>
       <c r="D68" s="37"/>
@@ -4451,11 +4554,11 @@
       <c r="AA68" s="35"/>
       <c r="AB68" s="37"/>
       <c r="AC68" s="39"/>
-      <c r="AD68" s="99"/>
-      <c r="AE68" s="89"/>
-      <c r="AF68" s="90"/>
-      <c r="AG68" s="90"/>
-      <c r="AH68" s="88"/>
+      <c r="AD68" s="91"/>
+      <c r="AE68" s="110"/>
+      <c r="AF68" s="107"/>
+      <c r="AG68" s="107"/>
+      <c r="AH68" s="108"/>
       <c r="AI68" s="40"/>
       <c r="AJ68" s="60"/>
       <c r="AK68" s="38"/>
@@ -4491,8 +4594,8 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4502,14 +4605,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -4520,14 +4622,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
